--- a/SEC-10 THIRD T5 MARKS.xlsx
+++ b/SEC-10 THIRD T5 MARKS.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>STUDENT ID</t>
   </si>
@@ -207,6 +208,15 @@
   </si>
   <si>
     <t>E79</t>
+  </si>
+  <si>
+    <t>Absenties</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>C96</t>
   </si>
 </sst>
 </file>
@@ -222,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +263,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -266,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -286,6 +302,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -570,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
@@ -1122,4 +1144,54 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SEC-10 THIRD T5 MARKS.xlsx
+++ b/SEC-10 THIRD T5 MARKS.xlsx
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SEC-10 THIRD T5 MARKS.xlsx
+++ b/SEC-10 THIRD T5 MARKS.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="absenties" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -592,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
@@ -1150,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/SEC-10 THIRD T5 MARKS.xlsx
+++ b/SEC-10 THIRD T5 MARKS.xlsx
@@ -30,9 +30,6 @@
     <t>STUDENT ID</t>
   </si>
   <si>
-    <t>STUDENT MARKS</t>
-  </si>
-  <si>
     <t>A63</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>C96</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C1" s="8"/>
     </row>
@@ -663,7 +663,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>11</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="4">
         <v>17</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="6">
         <v>16</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35">
         <v>10</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36">
         <v>9</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39">
         <v>14</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40">
         <v>15</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44">
         <v>10</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -975,15 +975,15 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50">
         <v>10</v>
@@ -999,15 +999,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52">
         <v>10</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -1031,15 +1031,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56">
         <v>8</v>
@@ -1047,15 +1047,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59">
         <v>9</v>
@@ -1071,15 +1071,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63">
         <v>7</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65">
         <v>9</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" s="4"/>
     </row>
@@ -1161,7 +1161,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
